--- a/UnityProject/Assets/GameData/WaveData.xlsx
+++ b/UnityProject/Assets/GameData/WaveData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>SpawnID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyMoveType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -411,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +436,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,8 +453,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -460,8 +470,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -474,8 +487,11 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -488,8 +504,11 @@
       <c r="D5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -502,8 +521,11 @@
       <c r="D6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -516,8 +538,11 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -530,8 +555,11 @@
       <c r="D8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -543,6 +571,128 @@
       </c>
       <c r="D9">
         <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
